--- a/packages/central-server/src/tests/testData/surveyResponses/functionality/periodicBaseline.xlsx
+++ b/packages/central-server/src/tests/testData/surveyResponses/functionality/periodicBaseline.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25003"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kostas/bes/Tupaia/tupaia/packages/meditrak-server/src/tests/testData/surveyResponses/functionality/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/salmanraza/Documents/GitHub/tupaia/packages/central-server/src/tests/testData/surveyResponses/functionality/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CC2BD57C-47AD-4CFC-871D-935E27971988}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40ACF56E-B2A8-0C4C-BCBD-1C7FA4A1306F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="18960" tabRatio="500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="16260" tabRatio="500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Test_Yearly" sheetId="1" r:id="rId1"/>
     <sheet name="Test_Weekly" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191028" iterateDelta="1E-4"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -86,7 +86,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="81">
   <si>
     <t>Id</t>
   </si>
@@ -323,13 +323,19 @@
   </si>
   <si>
     <t>2017W1_dl1_dog_delete</t>
+  </si>
+  <si>
+    <t>Entity Code</t>
+  </si>
+  <si>
+    <t>Entity Name</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -381,9 +387,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -421,7 +427,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -527,7 +533,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -669,7 +675,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -683,21 +689,21 @@
       <selection activeCell="E1" sqref="E1:K4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="15.95"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23.625" customWidth="1"/>
-    <col min="3" max="3" width="22.125" customWidth="1"/>
+    <col min="1" max="1" width="23.6640625" customWidth="1"/>
+    <col min="3" max="3" width="22.1640625" customWidth="1"/>
     <col min="4" max="4" width="25.5" customWidth="1"/>
     <col min="5" max="5" width="26" customWidth="1"/>
-    <col min="6" max="6" width="23.375" customWidth="1"/>
+    <col min="6" max="6" width="23.33203125" customWidth="1"/>
     <col min="7" max="7" width="18.5" customWidth="1"/>
     <col min="8" max="8" width="37" customWidth="1"/>
-    <col min="9" max="9" width="20.375" customWidth="1"/>
+    <col min="9" max="9" width="20.33203125" customWidth="1"/>
     <col min="10" max="10" width="24.5" customWidth="1"/>
     <col min="11" max="11" width="32.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="17.100000000000001">
+    <row r="1" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -732,7 +738,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -767,7 +773,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -802,7 +808,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -837,7 +843,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="17.100000000000001">
+    <row r="5" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>24</v>
       </c>
@@ -866,7 +872,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="17.100000000000001">
+    <row r="6" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>33</v>
       </c>
@@ -895,7 +901,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="17.100000000000001">
+    <row r="7" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>41</v>
       </c>
@@ -927,23 +933,23 @@
   <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.95"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="29" customWidth="1"/>
-    <col min="4" max="4" width="32.875" customWidth="1"/>
+    <col min="4" max="4" width="32.83203125" customWidth="1"/>
     <col min="5" max="5" width="34.5" customWidth="1"/>
-    <col min="6" max="6" width="35.125" customWidth="1"/>
+    <col min="6" max="6" width="35.1640625" customWidth="1"/>
     <col min="7" max="7" width="28.5" customWidth="1"/>
-    <col min="8" max="8" width="29.875" customWidth="1"/>
-    <col min="9" max="9" width="25.375" customWidth="1"/>
-    <col min="10" max="10" width="25.125" customWidth="1"/>
-    <col min="11" max="11" width="25.875" customWidth="1"/>
+    <col min="8" max="8" width="29.83203125" customWidth="1"/>
+    <col min="9" max="9" width="25.33203125" customWidth="1"/>
+    <col min="10" max="10" width="25.1640625" customWidth="1"/>
+    <col min="11" max="11" width="25.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="17.100000000000001">
+    <row r="1" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -978,7 +984,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -989,7 +995,7 @@
         <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>79</v>
       </c>
       <c r="E2" t="s">
         <v>13</v>
@@ -1013,7 +1019,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -1024,7 +1030,7 @@
         <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>80</v>
       </c>
       <c r="E3" t="s">
         <v>16</v>
@@ -1048,7 +1054,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -1083,7 +1089,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="33.950000000000003">
+    <row r="5" spans="1:11" ht="34" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>58</v>
       </c>
@@ -1112,7 +1118,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="33.950000000000003">
+    <row r="6" spans="1:11" ht="34" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>66</v>
       </c>
@@ -1141,7 +1147,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="33.950000000000003">
+    <row r="7" spans="1:11" ht="34" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>74</v>
       </c>
